--- a/Data/aearep-68/candidatepackages.xlsx
+++ b/Data/aearep-68/candidatepackages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="102">
   <si>
     <t>(Potential) missing package found</t>
   </si>
@@ -31,24 +31,24 @@
     <t>ivreg2</t>
   </si>
   <si>
+    <t>coefplot</t>
+  </si>
+  <si>
+    <t>egenmore</t>
+  </si>
+  <si>
     <t>unique</t>
   </si>
   <si>
-    <t>coefplot</t>
-  </si>
-  <si>
-    <t>egenmore</t>
-  </si>
-  <si>
     <t>ranktest</t>
   </si>
   <si>
+    <t>diff</t>
+  </si>
+  <si>
     <t>spmap</t>
   </si>
   <si>
-    <t>diff</t>
-  </si>
-  <si>
     <t>binscatter</t>
   </si>
   <si>
@@ -61,66 +61,66 @@
     <t>mif2dta</t>
   </si>
   <si>
+    <t>cibar</t>
+  </si>
+  <si>
+    <t>ietoolkit</t>
+  </si>
+  <si>
     <t>moss</t>
   </si>
   <si>
-    <t>cibar</t>
-  </si>
-  <si>
-    <t>ietoolkit</t>
+    <t>texsave</t>
+  </si>
+  <si>
+    <t>cdfplot</t>
   </si>
   <si>
     <t>ua</t>
   </si>
   <si>
-    <t>cdfplot</t>
-  </si>
-  <si>
-    <t>texsave</t>
-  </si>
-  <si>
     <t>ebalance</t>
   </si>
   <si>
     <t>ftest</t>
   </si>
   <si>
+    <t>network</t>
+  </si>
+  <si>
     <t>missing</t>
   </si>
   <si>
-    <t>network</t>
+    <t>erepost</t>
   </si>
   <si>
     <t>distplot</t>
   </si>
   <si>
+    <t>estwrite</t>
+  </si>
+  <si>
+    <t>hte</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>leebounds</t>
+  </si>
+  <si>
+    <t>norm</t>
+  </si>
+  <si>
+    <t>metadata</t>
+  </si>
+  <si>
     <t>strip</t>
   </si>
   <si>
-    <t>erepost</t>
-  </si>
-  <si>
-    <t>leebounds</t>
-  </si>
-  <si>
-    <t>estwrite</t>
-  </si>
-  <si>
-    <t>metadata</t>
-  </si>
-  <si>
     <t>report</t>
   </si>
   <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>norm</t>
-  </si>
-  <si>
-    <t>hte</t>
-  </si>
-  <si>
     <t>split</t>
   </si>
   <si>
@@ -130,69 +130,69 @@
     <t>white</t>
   </si>
   <si>
+    <t>python</t>
+  </si>
+  <si>
     <t>hbar</t>
   </si>
   <si>
+    <t>median</t>
+  </si>
+  <si>
     <t>find</t>
   </si>
   <si>
-    <t>python</t>
-  </si>
-  <si>
     <t>index</t>
   </si>
   <si>
-    <t>median</t>
+    <t>combine</t>
+  </si>
+  <si>
+    <t>pre</t>
   </si>
   <si>
     <t>screen</t>
   </si>
   <si>
-    <t>combine</t>
-  </si>
-  <si>
-    <t>pre</t>
-  </si>
-  <si>
     <t>effects</t>
   </si>
   <si>
+    <t>zip</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>gets</t>
+  </si>
+  <si>
     <t>next</t>
   </si>
   <si>
     <t>email</t>
   </si>
   <si>
-    <t>zip</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>gets</t>
+    <t>usd</t>
+  </si>
+  <si>
+    <t>povtime</t>
+  </si>
+  <si>
+    <t>spaces</t>
   </si>
   <si>
     <t>polar</t>
   </si>
   <si>
+    <t>dash</t>
+  </si>
+  <si>
     <t>sequence</t>
   </si>
   <si>
-    <t>usd</t>
-  </si>
-  <si>
-    <t>spaces</t>
-  </si>
-  <si>
-    <t>povtime</t>
-  </si>
-  <si>
     <t>switch</t>
   </si>
   <si>
-    <t>dash</t>
-  </si>
-  <si>
     <t>Package popularity (rank out of total # of packages)</t>
   </si>
   <si>
@@ -232,9 +232,6 @@
     <t>/home/lv39/Workspace/AEA/all//aearep-68/112081/setup</t>
   </si>
   <si>
-    <t>/home/lv39/Workspace/AEA/all//aearep-68/ebr63</t>
-  </si>
-  <si>
     <t>filename</t>
   </si>
   <si>
@@ -323,12 +320,6 @@
   </si>
   <si>
     <t>setup_stata.do</t>
-  </si>
-  <si>
-    <t>PII_stata_scan.do</t>
-  </si>
-  <si>
-    <t>template-config.do</t>
   </si>
 </sst>
 </file>
@@ -394,7 +385,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -418,7 +409,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -430,7 +421,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -454,7 +445,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -478,7 +469,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -502,7 +493,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -514,7 +505,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -526,7 +517,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -538,7 +529,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -550,7 +541,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -562,7 +553,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -574,7 +565,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -586,7 +577,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -598,7 +589,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -610,7 +601,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -622,7 +613,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -634,7 +625,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -646,7 +637,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -658,7 +649,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -670,7 +661,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -682,10 +673,10 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>349</v>
+        <v>403</v>
       </c>
       <c r="C26">
-        <v>0.11571618169546127</v>
+        <v>0.13322314620018005</v>
       </c>
       <c r="D26"/>
     </row>
@@ -694,10 +685,10 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>378</v>
+        <v>454</v>
       </c>
       <c r="C27">
-        <v>0.1253315657377243</v>
+        <v>0.15008264780044556</v>
       </c>
       <c r="D27"/>
     </row>
@@ -706,10 +697,10 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>409</v>
+        <v>491</v>
       </c>
       <c r="C28">
-        <v>0.13561007380485535</v>
+        <v>0.1623140424489975</v>
       </c>
       <c r="D28"/>
     </row>
@@ -718,10 +709,10 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>468</v>
+        <v>495</v>
       </c>
       <c r="C29">
-        <v>0.15517240762710571</v>
+        <v>0.16363635659217834</v>
       </c>
       <c r="D29"/>
     </row>
@@ -730,10 +721,10 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="C30">
-        <v>0.16412466764450073</v>
+        <v>0.16495867073535919</v>
       </c>
       <c r="D30"/>
     </row>
@@ -745,7 +736,7 @@
         <v>522</v>
       </c>
       <c r="C31">
-        <v>0.17307692766189575</v>
+        <v>0.17256198823451996</v>
       </c>
       <c r="D31"/>
     </row>
@@ -754,10 +745,10 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>564</v>
+        <v>539</v>
       </c>
       <c r="C32">
-        <v>0.18700265884399414</v>
+        <v>0.17818181216716766</v>
       </c>
       <c r="D32"/>
     </row>
@@ -766,10 +757,10 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>565</v>
+        <v>550</v>
       </c>
       <c r="C33">
-        <v>0.18733422458171844</v>
+        <v>0.18181818723678589</v>
       </c>
       <c r="D33"/>
     </row>
@@ -778,10 +769,10 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>594</v>
+        <v>575</v>
       </c>
       <c r="C34">
-        <v>0.19694960117340088</v>
+        <v>0.19008263945579529</v>
       </c>
       <c r="D34"/>
     </row>
@@ -790,10 +781,10 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>597</v>
+        <v>611</v>
       </c>
       <c r="C35">
-        <v>0.19794429838657379</v>
+        <v>0.20198346674442291</v>
       </c>
       <c r="D35"/>
     </row>
@@ -802,10 +793,10 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>606</v>
+        <v>632</v>
       </c>
       <c r="C36">
-        <v>0.20092837512493134</v>
+        <v>0.20892561972141266</v>
       </c>
       <c r="D36"/>
     </row>
@@ -814,10 +805,10 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>613</v>
+        <v>647</v>
       </c>
       <c r="C37">
-        <v>0.20324933528900146</v>
+        <v>0.21388429403305054</v>
       </c>
       <c r="D37"/>
     </row>
@@ -826,10 +817,10 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>745</v>
+        <v>712</v>
       </c>
       <c r="C38">
-        <v>0.24701590836048126</v>
+        <v>0.2353719025850296</v>
       </c>
       <c r="D38"/>
     </row>
@@ -838,10 +829,10 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>868</v>
+        <v>885</v>
       </c>
       <c r="C39">
-        <v>0.28779840469360352</v>
+        <v>0.29256197810173035</v>
       </c>
       <c r="D39"/>
     </row>
@@ -850,10 +841,10 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>879</v>
+        <v>889</v>
       </c>
       <c r="C40">
-        <v>0.29144561290740967</v>
+        <v>0.29388430714607239</v>
       </c>
       <c r="D40"/>
     </row>
@@ -862,10 +853,10 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>910</v>
+        <v>955</v>
       </c>
       <c r="C41">
-        <v>0.3017241358757019</v>
+        <v>0.31570246815681458</v>
       </c>
       <c r="D41"/>
     </row>
@@ -874,10 +865,10 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>985</v>
+        <v>978</v>
       </c>
       <c r="C42">
-        <v>0.32659152150154114</v>
+        <v>0.32330578565597534</v>
       </c>
       <c r="D42"/>
     </row>
@@ -886,10 +877,10 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>1133</v>
+        <v>998</v>
       </c>
       <c r="C43">
-        <v>0.37566313147544861</v>
+        <v>0.32991734147071838</v>
       </c>
       <c r="D43"/>
     </row>
@@ -898,10 +889,10 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>1420</v>
+        <v>1414</v>
       </c>
       <c r="C44">
-        <v>0.47082227468490601</v>
+        <v>0.46743801236152649</v>
       </c>
       <c r="D44"/>
     </row>
@@ -910,10 +901,10 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>1423</v>
+        <v>1428</v>
       </c>
       <c r="C45">
-        <v>0.47181698679924011</v>
+        <v>0.47206610441207886</v>
       </c>
       <c r="D45"/>
     </row>
@@ -922,10 +913,10 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>1553</v>
+        <v>1474</v>
       </c>
       <c r="C46">
-        <v>0.51492041349411011</v>
+        <v>0.48727273941040039</v>
       </c>
       <c r="D46"/>
     </row>
@@ -934,10 +925,10 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>1660</v>
+        <v>1497</v>
       </c>
       <c r="C47">
-        <v>0.55039787292480469</v>
+        <v>0.49487602710723877</v>
       </c>
       <c r="D47"/>
     </row>
@@ -946,10 +937,10 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>1798</v>
+        <v>1658</v>
       </c>
       <c r="C48">
-        <v>0.5961538553237915</v>
+        <v>0.54809916019439697</v>
       </c>
       <c r="D48"/>
     </row>
@@ -958,10 +949,10 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>1817</v>
+        <v>1724</v>
       </c>
       <c r="C49">
-        <v>0.60245358943939209</v>
+        <v>0.56991738080978394</v>
       </c>
       <c r="D49"/>
     </row>
@@ -970,10 +961,10 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>1859</v>
+        <v>1865</v>
       </c>
       <c r="C50">
-        <v>0.61637932062149048</v>
+        <v>0.61652892827987671</v>
       </c>
       <c r="D50"/>
     </row>
@@ -982,10 +973,10 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>1890</v>
+        <v>1880</v>
       </c>
       <c r="C51">
-        <v>0.62665784358978271</v>
+        <v>0.62148761749267578</v>
       </c>
       <c r="D51"/>
     </row>
@@ -994,10 +985,10 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>1965</v>
+        <v>1993</v>
       </c>
       <c r="C52">
-        <v>0.65152519941329956</v>
+        <v>0.65884298086166382</v>
       </c>
       <c r="D52"/>
     </row>
@@ -1006,10 +997,10 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>2137</v>
+        <v>2008</v>
       </c>
       <c r="C53">
-        <v>0.70855438709259033</v>
+        <v>0.66380167007446289</v>
       </c>
       <c r="D53"/>
     </row>
@@ -1018,10 +1009,10 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>2208</v>
+        <v>2174</v>
       </c>
       <c r="C54">
-        <v>0.73209547996520996</v>
+        <v>0.71867769956588745</v>
       </c>
       <c r="D54"/>
     </row>
@@ -1030,10 +1021,10 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>2217</v>
+        <v>2309</v>
       </c>
       <c r="C55">
-        <v>0.73507958650588989</v>
+        <v>0.76330578327178955</v>
       </c>
       <c r="D55"/>
     </row>
@@ -1042,10 +1033,10 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>2244</v>
+        <v>2363</v>
       </c>
       <c r="C56">
-        <v>0.74403184652328491</v>
+        <v>0.78115701675415039</v>
       </c>
       <c r="D56"/>
     </row>
@@ -1054,10 +1045,10 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>2274</v>
+        <v>2436</v>
       </c>
       <c r="C57">
-        <v>0.75397878885269165</v>
+        <v>0.80528926849365234</v>
       </c>
       <c r="D57"/>
     </row>
@@ -1066,10 +1057,10 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>2367</v>
+        <v>2485</v>
       </c>
       <c r="C58">
-        <v>0.78481429815292358</v>
+        <v>0.82148760557174683</v>
       </c>
       <c r="D58"/>
     </row>
@@ -1078,10 +1069,10 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>2424</v>
+        <v>2806</v>
       </c>
       <c r="C59">
-        <v>0.80371350049972534</v>
+        <v>0.92760330438613892</v>
       </c>
       <c r="D59"/>
     </row>
@@ -1091,7 +1082,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B30"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -1099,7 +1090,7 @@
         <v>62</v>
       </c>
       <c r="B1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2">
@@ -1107,7 +1098,7 @@
         <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3">
@@ -1115,7 +1106,7 @@
         <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4">
@@ -1123,7 +1114,7 @@
         <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
@@ -1131,7 +1122,7 @@
         <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
@@ -1139,7 +1130,7 @@
         <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
@@ -1147,7 +1138,7 @@
         <v>64</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8">
@@ -1155,7 +1146,7 @@
         <v>64</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9">
@@ -1163,7 +1154,7 @@
         <v>64</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
@@ -1171,7 +1162,7 @@
         <v>64</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11">
@@ -1179,7 +1170,7 @@
         <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12">
@@ -1187,7 +1178,7 @@
         <v>64</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13">
@@ -1195,7 +1186,7 @@
         <v>65</v>
       </c>
       <c r="B13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14">
@@ -1203,7 +1194,7 @@
         <v>65</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15">
@@ -1211,7 +1202,7 @@
         <v>65</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16">
@@ -1219,7 +1210,7 @@
         <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17">
@@ -1227,7 +1218,7 @@
         <v>66</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18">
@@ -1235,7 +1226,7 @@
         <v>66</v>
       </c>
       <c r="B18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19">
@@ -1243,7 +1234,7 @@
         <v>66</v>
       </c>
       <c r="B19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20">
@@ -1251,7 +1242,7 @@
         <v>67</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21">
@@ -1259,7 +1250,7 @@
         <v>68</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22">
@@ -1267,7 +1258,7 @@
         <v>68</v>
       </c>
       <c r="B22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23">
@@ -1275,7 +1266,7 @@
         <v>69</v>
       </c>
       <c r="B23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24">
@@ -1283,7 +1274,7 @@
         <v>69</v>
       </c>
       <c r="B24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25">
@@ -1291,7 +1282,7 @@
         <v>70</v>
       </c>
       <c r="B25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26">
@@ -1299,7 +1290,7 @@
         <v>70</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27">
@@ -1307,7 +1298,7 @@
         <v>70</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28">
@@ -1315,7 +1306,7 @@
         <v>70</v>
       </c>
       <c r="B28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29">
@@ -1323,7 +1314,7 @@
         <v>70</v>
       </c>
       <c r="B29" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30">
@@ -1331,23 +1322,7 @@
         <v>71</v>
       </c>
       <c r="B30" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>72</v>
-      </c>
-      <c r="B31" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>72</v>
-      </c>
-      <c r="B32" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
